--- a/Private/DC32_Cnet_Badge_and_SAO_Pricing.xlsx
+++ b/Private/DC32_Cnet_Badge_and_SAO_Pricing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgranat\My Drive\Dev\Arduino\DC32_Cnet_Badge\Private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD34E0D-B947-43ED-B7B7-8EF968BE698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073766A3-B428-4E74-BA61-D1538DFEA02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="2895" windowWidth="36195" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="3270" windowWidth="36195" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DC32_Cnet_Badge_Main" sheetId="1" r:id="rId1"/>
-    <sheet name="DC32_Cnet_Badge_Cassette_SAO" sheetId="2" r:id="rId2"/>
-    <sheet name="DC32_Cnet_Badge_DJ_SAO" sheetId="3" r:id="rId3"/>
+    <sheet name="DC32_Cnet_Cassette_SAO" sheetId="4" r:id="rId2"/>
+    <sheet name="DC32_Cnet_DJ_SAO" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Qty</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Supplier</t>
-  </si>
-  <si>
     <t>https://pcbway.com</t>
   </si>
   <si>
@@ -140,6 +137,48 @@
   </si>
   <si>
     <t>Estimated Shipping, Tax &amp; Tariff</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT51R0/1741457</t>
+  </si>
+  <si>
+    <t>RES 51 OHM 5% 1/4W AXIAL</t>
+  </si>
+  <si>
+    <t>LED YELLOW DIFF RECT 2MMX5MM T/H</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sunled/XSUY18D/4745871</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS 2.54MM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/61200621621/4846913</t>
+  </si>
+  <si>
+    <t>Total for Qty 100</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 10POS 2.54MM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adam-tech/PH1-10-UA/9830653</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0C77XPKSL/?coliid=I3PQ49SP2E3713&amp;colid=JPUIZEWS3NT2&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Sparkleiot 16 Bits WS2812 RGB LED Ring SMD 5050 Addressable LED String Individual Programmable with Integrated Driver DC 5V for Arduino Raspberry Pi ESP32(Pack of 5pcs)</t>
+  </si>
+  <si>
+    <t>Cassette SAO PCB</t>
+  </si>
+  <si>
+    <t>DJ SAO PCB</t>
+  </si>
+  <si>
+    <t>Part / Supplier</t>
   </si>
 </sst>
 </file>
@@ -484,9 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -500,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -520,10 +557,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>494.61</v>
@@ -536,7 +573,7 @@
         <v>495.61</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -552,14 +589,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>0.17</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5" s="1">
         <f>SUM(C5*D5)</f>
-        <v>17</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,14 +607,14 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>1.29</v>
+        <v>1.0045999999999999</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:E8" si="0">SUM(C6*D6)</f>
-        <v>129</v>
+        <v>100.46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,14 +625,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.69</v>
+        <v>0.52049999999999996</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>52.05</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,19 +643,19 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.27</v>
+        <v>0.17860000000000001</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" s="1">
@@ -627,7 +664,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -762,7 +799,7 @@
       </c>
       <c r="E22" s="3">
         <f>SUM(E2:E19)</f>
-        <v>3515.6899999999996</v>
+        <v>3454.0699999999997</v>
       </c>
     </row>
   </sheetData>
@@ -785,25 +822,295 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412FA466-53D5-439B-98F0-70EAA17A368E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DDC082-1AEE-4DBE-918B-0B2EE2F25B34}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="74.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>81.430000000000007</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <f>SUM(C2:D2)</f>
+        <v>82.43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <f>SUM(C5*D5)</f>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1158</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6" si="0">SUM(C6*D6)</f>
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7" si="1">SUM(C7*D7)</f>
+        <v>38.879999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUM(E2:E9)</f>
+        <v>320.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{543E0C41-AC15-476D-8CA7-F6DFD5E481AE}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{66AE3C9B-A556-4497-B5A5-9A5C6BAE9D40}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{58852DF9-126D-4C03-A359-276E36C2A632}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{283B4ACC-F95F-40D1-AA39-D55AAC590ED2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E593D1A2-FC9E-4233-9954-BA49D8D1EEFC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45811E29-4392-4DB6-B879-B158F648642E}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="74.7109375" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1">
+        <v>81.430000000000007</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184.6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5" si="0">SUM(C5*D5)</f>
+        <v>38.879999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1103</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6" si="1">SUM(C6*D6)</f>
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20.99</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11" si="2">SUM(C11*D11)</f>
+        <v>419.79999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SUM(E2:E11)</f>
+        <v>665.37999999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9754748A-A0C0-43D7-9B77-E116AD16736A}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{7688FC29-94A6-47A9-ABC1-6695D68E1285}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{CFACD5DC-6927-4792-B40B-3A2E1703233D}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{5791F210-33C2-4D07-B06B-80E0C84344D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Private/DC32_Cnet_Badge_and_SAO_Pricing.xlsx
+++ b/Private/DC32_Cnet_Badge_and_SAO_Pricing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgranat\My Drive\Dev\Arduino\DC32_Cnet_Badge\Private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073766A3-B428-4E74-BA61-D1538DFEA02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02909A35-62A9-4503-9122-C7DAE7B4B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="3270" windowWidth="36195" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="1005" windowWidth="38490" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DC32_Cnet_Badge_Main" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -815,7 +817,7 @@
     <hyperlink ref="B17" r:id="rId9" display="https://www.amazon.com/dp/B0836J8LR4/?coliid=I2CLYGE1X9DXCH&amp;colid=3PFSWXBT5X50P&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it" xr:uid="{66A8ED81-C077-411C-9952-AC6666AB97A5}"/>
     <hyperlink ref="B18" r:id="rId10" xr:uid="{46587C58-9FC3-4659-8A54-D6DC206FFD38}"/>
     <hyperlink ref="B2" r:id="rId11" xr:uid="{772C5F9A-17A0-4CB4-B515-2E9429BD5CED}"/>
-    <hyperlink ref="B19" r:id="rId12" display="https://www.amazon.com/dp/B09MLQK3FR/?coliid=I2UEHEJUZO6UAO&amp;colid=3PFSWXBT5X50P&amp;ref_=list_c_wl_lv_ov_lig_dp_it&amp;th=1" xr:uid="{EABC11F1-B511-4ADA-9278-E3995BB0CD96}"/>
+    <hyperlink ref="B19" r:id="rId12" display="https://www.amazon.com/KBT-3-7V-1350mAh-Li-Polymer-Battery/dp/B0CCDKCFM1/ref=sr_1_7?crid=S74LU7WWABP3&amp;dib=eyJ2IjoiMSJ9.SveV1FVNd1-hindHHR7buWn08kDIe9LKmzqsJTcCmnsgEDZcW433iL0yMMhYhZvKWmlr4ggZp6_nRMtcke725hF3M2ws6F8bIMNR6eBfsHSjoMbpPeaiGwd-Ex08CCDR5cHfcIT3-i_OORTo58mJrvjk4u6ibaqcBA43A5vBXerhR5KzHTFLgu3Ytf8bQZe0UtGeb34trKRl2Prbpv_LFe48KIC0JXfSgwrvP4oljZblvIYZjh8zWANZra1PZHHkrqrGRLC3wCurgOZ-MmRLuvJcAvKWHhu3t5-Ud9ER1Fw.uxXPCLyEEhYdTUt8cYEDZVvfNjDUWAB4gn5LJYxwra4&amp;dib_tag=se&amp;keywords=lipo%2Bjst%2Bph&amp;qid=1708389843&amp;refinements=p_85%3A2470955011&amp;rnid=2470954011&amp;rps=1&amp;sprefix=lipo%2Bjst%2Bph%2Caps%2C160&amp;sr=8-7&amp;th=1" xr:uid="{EABC11F1-B511-4ADA-9278-E3995BB0CD96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
